--- a/biology/Zoologie/Chiropsalmus_quadrumanus/Chiropsalmus_quadrumanus.xlsx
+++ b/biology/Zoologie/Chiropsalmus_quadrumanus/Chiropsalmus_quadrumanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiropsalmus quadrumanus est une méduse boîte (cuboméduse) de la famille des Chiropsalmidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiropsalmus quadrumanus est transparente, mesure à peu près la même taille qu'un poing humain. Son ombrelle est robuste et lisse, presque aussi haute que large (pour un ratio d'environ 1:1.3), mais un peu aplatie au sommet. Le diamètre de la cloche avoisine les 140 mm. Chiropsalmus quadrumanus possède plusieurs tentacules à chaque coin, en tout 24 à 40, mesurant chacun jusqu'à 3 voire 4 mètres. La méduse possède 4 rhopalia (organes sensoriels), situés dans des petites niches à l'intérieur de l'ombrelle[1]. Elle possède également un estomac large, rond, prolongée par quatre poches qui s'étendent dans les sinus radiaux le long des bords de la cloche ; à chaque poche gastrique sont accrochés deux « sacs » lisses en forme de doigt[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiropsalmus quadrumanus est transparente, mesure à peu près la même taille qu'un poing humain. Son ombrelle est robuste et lisse, presque aussi haute que large (pour un ratio d'environ 1:1.3), mais un peu aplatie au sommet. Le diamètre de la cloche avoisine les 140 mm. Chiropsalmus quadrumanus possède plusieurs tentacules à chaque coin, en tout 24 à 40, mesurant chacun jusqu'à 3 voire 4 mètres. La méduse possède 4 rhopalia (organes sensoriels), situés dans des petites niches à l'intérieur de l'ombrelle. Elle possède également un estomac large, rond, prolongée par quatre poches qui s'étendent dans les sinus radiaux le long des bords de la cloche ; à chaque poche gastrique sont accrochés deux « sacs » lisses en forme de doigt.
 Elle possède quatre gonades, chacune étant une feuille mince de part et d'autre d'un canal radial ; à maturité, elles s'étendent chacune latéralement. Les tentacules sont généralement transparents excepté 1 ou 2 qui peuvent être mauve pâle, mais qui généralement restent incolore à jaune blanchâtre.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chiropsalmus quadrigatus, Haeckel, 1880, est peut-être de la même espèce.
 Tamoya quadrumanus, Müller, 1859 est un synonyme de Chiropsalmus quarumanus</t>
@@ -574,7 +590,9 @@
           <t>Piqûre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La piqûre de cette cubozoaire peut être très dangereuse et mortelle pour les enfants.
 </t>
